--- a/state-chart/m7/chart/chart/0100_Flow/040_Move/doc/MoveFlow.xlsx
+++ b/state-chart/m7/chart/chart/0100_Flow/040_Move/doc/MoveFlow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -104,18 +104,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>S_CHECK_STATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>check-cmt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステート確認</t>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -266,26 +255,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>state-cmt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セレクトクリア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>state_update();</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステート更新</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -386,12 +356,95 @@
 }</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクト説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>statepos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>statepos-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート位置</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート位置説明</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>statepos_update();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート位置更新</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクトクリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マウスアップ時
+キャンセル時</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無指定</t>
+    <rPh sb="0" eb="3">
+      <t>ムシテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +489,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -623,6 +692,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -635,43 +707,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1136,32 +1205,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="6"/>
+    <col min="1" max="16384" width="15.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="144.75" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="37.5">
+    <row r="1" spans="1:11" ht="144.75" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="37.5">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -1173,27 +1241,24 @@
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
@@ -1201,29 +1266,28 @@
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="37.5">
+        <v>41</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
@@ -1232,280 +1296,281 @@
         <v>4</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="56.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="56.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="75">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="56.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" ht="56.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" ht="75">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="37.5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" ht="93.75">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="38.25" thickBot="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" ht="93.75">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" ht="38.25" thickBot="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1526,8 +1591,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="7" t="s">
-        <v>52</v>
+      <c r="A1" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1611,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/state-chart/m7/chart/chart/0100_Flow/040_Move/doc/MoveFlow.xlsx
+++ b/state-chart/m7/chart/chart/0100_Flow/040_Move/doc/MoveFlow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -210,22 +210,6 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>check_mouseup();
-check_cancel();</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マウスアップイベント確認
-キャンセルイベント確認</t>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -300,6 +284,132 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクト説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>statepos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>statepos-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート位置</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート位置説明</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>statepos_update();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート位置更新</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクトクリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マウスアップ時
+キャンセル時</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無指定</t>
+    <rPh sb="0" eb="3">
+      <t>ムシテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>br_create_fail(S_WAIT_MOUSEDOWN);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectpos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectpos-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクト位置</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクト位置説明</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectpos_update();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セレクト位置更新</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>/*
     [[state]]
     [[state-cmt]]
@@ -310,13 +420,19 @@
         if (bFirst) {
             SetNextState([[nextstate]]);
         }
+        &lt;&lt;&lt;?selectpos
+        /*
+            [[selectpos-cmt]]
+        */
+        [[selectpos]]
+        &gt;&gt;&gt;
         &lt;&lt;&lt;?wait
-            /*
-                [[wait-cmt]]
-            */
-            if (![[wait]]) {
-                return;
-            }
+        /*
+            [[wait-cmt]]
+        */
+        if (![[wait]]) {
+            return;
+        }
         &gt;&gt;&gt;
         NextPhase();
         return;
@@ -335,11 +451,11 @@
             */
             [[select]]
             &gt;&gt;&gt;
-            &lt;&lt;&lt;?state
+            &lt;&lt;&lt;?statepos
             /*
-                [[state-cmt]]
+                [[statepos-cmt]]
             */
-            [[state]]
+            [[statepos]]
             &gt;&gt;&gt;
             &lt;&lt;&lt;?branch
             /*
@@ -354,89 +470,6 @@
         }
     }
 }</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェック説明</t>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セレクト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セレクト説明</t>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>statepos</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>statepos-cmt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステート位置</t>
-    <rPh sb="4" eb="6">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステート位置説明</t>
-    <rPh sb="4" eb="6">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>statepos_update();</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステート位置更新</t>
-    <rPh sb="4" eb="6">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セレクトクリア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マウスアップ時
-キャンセル時</t>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無指定</t>
-    <rPh sb="0" eb="3">
-      <t>ムシテイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1205,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1241,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -1250,10 +1283,10 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
@@ -1267,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>12</v>
@@ -1276,13 +1309,13 @@
         <v>18</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -1305,201 +1338,209 @@
         <v>11</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="56.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="56.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="75">
+    <row r="8" spans="1:11" ht="56.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="37.5">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="E9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="E10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="37.5">
+    <row r="11" spans="1:11">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="37.5">
       <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="13"/>
@@ -1530,47 +1571,75 @@
       <c r="J16" s="12"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="93.75">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="93.75">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="38.25" thickBot="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
+      <c r="F19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="38.25" thickBot="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1583,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D99C82-D23D-4120-B174-6D9E384372A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1592,7 +1661,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
